--- a/test_files/Specialty Emailed Version.xlsx
+++ b/test_files/Specialty Emailed Version.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>FacID</t>
   </si>
@@ -93,9 +93,6 @@
     <t>NJ - C.C. @ LAURELTON</t>
   </si>
   <si>
-    <t>PER DIEM (MCA)</t>
-  </si>
-  <si>
     <t>RX</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>FACI</t>
   </si>
   <si>
-    <t>MCA</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -135,39 +129,12 @@
     <t>Exclusion</t>
   </si>
   <si>
-    <t>398947</t>
-  </si>
-  <si>
     <t>62135021010</t>
   </si>
   <si>
     <t>FOLIC ACID-1MG-TABS</t>
   </si>
   <si>
-    <t>30768000691</t>
-  </si>
-  <si>
-    <t>ZINC         TAB 50MG</t>
-  </si>
-  <si>
-    <t>CoPay</t>
-  </si>
-  <si>
-    <t>377057</t>
-  </si>
-  <si>
-    <t>HOUSE STOCK, NURSING OFFICE</t>
-  </si>
-  <si>
-    <t>49281075221</t>
-  </si>
-  <si>
-    <t>TUBERSOL     INJ 5/0.1ML</t>
-  </si>
-  <si>
-    <t>HOUSE</t>
-  </si>
-  <si>
     <t>374893</t>
   </si>
   <si>
@@ -177,27 +144,6 @@
     <t>SYSTANE COMP SOL 0.6%</t>
   </si>
   <si>
-    <t>400554</t>
-  </si>
-  <si>
-    <t>00703854023</t>
-  </si>
-  <si>
-    <t>ENOXAPARIN   INJ 40/0.4ML</t>
-  </si>
-  <si>
-    <t>72140003263</t>
-  </si>
-  <si>
-    <t>AQUAPHOR     OIN</t>
-  </si>
-  <si>
-    <t>00378696112</t>
-  </si>
-  <si>
-    <t>GLATIRAMER   INJ 40MG/ML</t>
-  </si>
-  <si>
     <t>374934</t>
   </si>
   <si>
@@ -207,43 +153,13 @@
     <t>STAT</t>
   </si>
   <si>
-    <t>374948</t>
-  </si>
-  <si>
-    <t>00172392680</t>
-  </si>
-  <si>
-    <t>diazePAM 5MG TAB</t>
-  </si>
-  <si>
-    <t>374976</t>
-  </si>
-  <si>
-    <t>00093573201</t>
-  </si>
-  <si>
-    <t>oxyCODONE ER 20MG TAB</t>
-  </si>
-  <si>
     <t>KFSTXRL, XDWPN</t>
   </si>
   <si>
-    <t>KPSKOP PP, JOKN</t>
-  </si>
-  <si>
     <t>NONI, ANN</t>
   </si>
   <si>
     <t>NZNGZNK, LSSZ</t>
-  </si>
-  <si>
-    <t>RSCJ, JKZN</t>
-  </si>
-  <si>
-    <t>MCFZDDJN, JKSJPD</t>
-  </si>
-  <si>
-    <t>WSLKJRT, JKDN</t>
   </si>
 </sst>
 </file>
@@ -583,7 +499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -591,11 +507,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,10 +612,10 @@
         <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E2" s="6">
         <v>10053530</v>
@@ -708,16 +624,16 @@
         <v>44076</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" s="6">
         <v>30</v>
@@ -729,22 +645,22 @@
         <v>30.1</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U2" s="7">
         <v>44104</v>
@@ -758,10 +674,10 @@
         <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E3" s="6">
         <v>10105501</v>
@@ -770,16 +686,16 @@
         <v>44078</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" s="6">
         <v>30</v>
@@ -791,22 +707,22 @@
         <v>21.4</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S3" s="6" t="b">
         <v>0</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U3" s="7">
         <v>44104</v>
@@ -820,10 +736,10 @@
         <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E4" s="6">
         <v>10005505</v>
@@ -832,16 +748,16 @@
         <v>44098</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="6">
         <v>5</v>
@@ -853,22 +769,22 @@
         <v>8.7100000000000009</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U4" s="7">
         <v>44104</v>
@@ -882,10 +798,10 @@
         <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E5" s="6">
         <v>10050103</v>
@@ -894,16 +810,16 @@
         <v>44076</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="6">
         <v>30</v>
@@ -915,22 +831,22 @@
         <v>1.98</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S5" s="6" t="b">
         <v>0</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U5" s="7">
         <v>44104</v>
@@ -944,10 +860,10 @@
         <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E6" s="6">
         <v>10150000</v>
@@ -956,16 +872,16 @@
         <v>44078</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" s="6">
         <v>1</v>
@@ -977,573 +893,24 @@
         <v>47.5</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U6" s="7">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="6">
-        <v>10005315</v>
-      </c>
-      <c r="F7" s="7">
-        <v>44098</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="6">
-        <v>30</v>
-      </c>
-      <c r="L7" s="6">
-        <v>30</v>
-      </c>
-      <c r="M7" s="6">
-        <v>1.68</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U7" s="7">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="6">
-        <v>10501311</v>
-      </c>
-      <c r="F8" s="7">
-        <v>44070</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="6">
-        <v>-28</v>
-      </c>
-      <c r="L8" s="6">
-        <v>-28</v>
-      </c>
-      <c r="M8" s="6">
-        <v>-3.41</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U8" s="7">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="6">
-        <v>10015001</v>
-      </c>
-      <c r="F9" s="7">
-        <v>44102</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="6">
-        <v>60</v>
-      </c>
-      <c r="L9" s="6">
-        <v>30</v>
-      </c>
-      <c r="M9" s="6">
-        <v>282.82</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U9" s="7">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="6">
-        <v>10550301</v>
-      </c>
-      <c r="F10" s="7">
-        <v>44104</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="6">
-        <v>3</v>
-      </c>
-      <c r="L10" s="6">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6">
-        <v>267.89999999999998</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U10" s="7">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="6">
-        <v>10110015</v>
-      </c>
-      <c r="F11" s="7">
-        <v>44086</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="6">
-        <v>14</v>
-      </c>
-      <c r="L11" s="6">
-        <v>14</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0.92</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S11" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U11" s="7">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>44104</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="6">
-        <v>16</v>
-      </c>
-      <c r="M12" s="6">
-        <v>168</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U12" s="7">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="6">
-        <v>15030553</v>
-      </c>
-      <c r="F13" s="7">
-        <v>44035</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="6">
-        <v>-3.6</v>
-      </c>
-      <c r="L13" s="6">
-        <v>-9</v>
-      </c>
-      <c r="M13" s="6">
-        <v>-71.680000000000007</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S13" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U13" s="7">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="6">
-        <v>10510355</v>
-      </c>
-      <c r="F14" s="7">
-        <v>44075</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="6">
-        <v>99</v>
-      </c>
-      <c r="L14" s="6">
-        <v>10</v>
-      </c>
-      <c r="M14" s="6">
-        <v>9.99</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S14" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U14" s="7">
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="6">
-        <v>10301515</v>
-      </c>
-      <c r="F15" s="7">
-        <v>44092</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="6">
-        <v>12</v>
-      </c>
-      <c r="L15" s="6">
-        <v>28</v>
-      </c>
-      <c r="M15" s="6">
-        <v>5259.74</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U15" s="7">
         <v>44104</v>
       </c>
     </row>

--- a/test_files/Specialty Emailed Version.xlsx
+++ b/test_files/Specialty Emailed Version.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Table" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table!$A$1:$U$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -499,7 +499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -511,7 +511,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
